--- a/result/0-shot/Baichuan-13B/response/singledrug(type)/response.xlsx
+++ b/result/0-shot/Baichuan-13B/response/singledrug(type)/response.xlsx
@@ -461,7 +461,7 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>response</t>
+          <t>CoT</t>
         </is>
       </c>
     </row>
@@ -512,7 +512,10 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>（G）二氢吡啶类CCB</t>
+          <t>首先，我们需要根据《中国高血压防治指南2018》对患者的危险因素进行分层。根据患者的年龄、血压值以及药物治疗史，我们可以初步判断患者属于高血压1级（140-159/90-99mmHg）且没有其他心血管疾病的风险因素。
+根据《中国高血压防治指南2018》，对于1级高血压患者，首选的治疗方法是生活方式干预，包括低盐饮食、适量运动等。如果生活方式干预3个月后血压仍未达标，可以考虑使用药物治疗。
+在给出的选项中，（A）直接血管扩张药物、（C）非二氢吡啶类CCB、（G）二氢吡啶类CCB都是常用的降压药物，可以用于1级高血压的治疗。而（B）他汀类、（D）中枢作用药物、（E）噻唑烷二酮类、（F）单氧化酶抑制剂则是用于治疗高胆固醇血症、糖尿病等疾病的药物，并不适用于治疗1级高血压。
+因此，根据患者的病情和《中国高血压防治指南2018》的建议，最适合患者的用药方案是（C）非二氢吡啶类CCB。</t>
         </is>
       </c>
     </row>
@@ -563,7 +566,12 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>（A）单氧化酶抑制剂</t>
+          <t>首先，我们需要根据患者的血压值来判断其是否属于高血压。根据《中国高血压防治指南2018》，正常血压的范围是收缩压（SBP）小于等于140mmHg且舒张压（DBP）小于等于90mmHg；正常高值血压的范围是130-139/85-89mmHg；1级高血压（轻度）是140-159/90-99mmHg；2级高血压（中度）是160-179/100-109mmHg；3级高血压（重度）是大于等于180/110mmHg。
+根据患者描述，患者的收缩压为150 mmHg，舒张压为90 mmHg，因此属于1级高血压。
+接下来，我们需要根据《中国高血压防治指南2018》对高血压患者进行心血管风险分层。根据患者的年龄、血压值、有无其他心血管疾病危险因素（如糖尿病、血脂异常、吸烟、肥胖等）以及是否有其他慢性疾病（如冠心病、脑血管病、肾脏病等），将高血压患者分为低危组、中危组和高危组。
+在本例中，患者年龄为50岁，无其他心血管疾病危险因素和慢性疾病，因此属于中危组。
+根据《中国高血压防治指南2018》，对于中危组的高血压患者，首选的降压药物是ACEI或ARB类药物，其次可以考虑CCB类药物。因此，对于本例患者，最合适的用药方案是（A）单氧化酶抑制剂或（E）非二氢吡啶类CCB。
+综上所述，对于本例患者，最合适的用药方案是（A）单氧化酶抑制剂或（E）非二氢吡啶类CCB。</t>
         </is>
       </c>
     </row>
@@ -616,7 +624,19 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>（C）二氢吡啶类CCB</t>
+          <t>首先，我们需要根据《中国高血压防治指南2018》对患者的心血管疾病危险因素进行分层。根据患者的年龄、血压值、心率以及实验室检查结果，我们可以得出以下结论：
+1. 患者为50岁，属于中青年人群，但收缩压和舒张压均高于正常范围，存在高血压问题；
+2. 心率70 bpm，在正常范围内；
+3. GFR为100 ml/min*1.73/m²，血钾浓度为4.0 mmol/L，血肌酐为60 μmol/L，表明肾功能正常；
+4. 患者无吸烟或饮酒史，无家族史，无手术史，无既往病史，说明患者没有其他心血管疾病危险因素。
+根据以上分析，该患者属于1级高血压（轻度），且没有其他心血管疾病危险因素。因此，我们应根据患者的血压水平选择降压药物。
+在《中国高血压防治指南2018》中，对于1级高血压（轻度）的治疗建议如下：
+- 对于单纯性高血压患者，首选ACEI或ARB类药物；
+- 如果不能耐受ACEI或ARB类药物，可以选择CCB类药物；
+- 对于伴有糖尿病或肾脏疾病的患者，可以选择ACEI或ARB类药物；
+- 对于伴有左心室肥厚或心力衰竭的患者，可以选择ACEI或ARB类药物。
+根据上述建议，我们可以排除选项（A）袢利尿剂、（B）β1受体阻滞剂、（D）α受体阻滞剂、（E）醛固酮受体拮抗剂、（F）肾素抑制剂、（G）中枢作用药物。
+因此，最适合该患者的用药方案是（C）二氢吡啶类CCB。</t>
         </is>
       </c>
     </row>
@@ -669,7 +689,10 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>（B）噻嗪类利尿剂</t>
+          <t>根据《中国高血压防治指南2018》，心血管疾病的危险因素分层主要依据年龄、血压、血脂、血糖、体重指数(BMI)、吸烟、家族史等因素。
+对于这位52岁的男性高血压患者，其收缩压为150 mmHg，舒张压为91 mmHg，属于1级高血压。同时，他的血钾浓度为6.0 mmol/L，血肌酐为70 μmol/L，表明肾功能正常。由于他无吸烟或饮酒史，无既往病史记录，无手术史记录，无家族病史记录，因此，他的心血管疾病风险相对较低。
+在药物治疗方面，对于1级高血压患者，首选的降压药物是ACEI（血管紧张素转化酶抑制剂）或ARB（血管紧张素受体阻滞剂），因为它们可以保护心脏和肾脏。同时，对于血钾正常的高血压患者，可以使用噻嗪类利尿剂。
+综上所述，对于这位患者，最适合的用药方案是（A）ARNI。</t>
         </is>
       </c>
     </row>
@@ -722,7 +745,12 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>（A）醛固酮受体拮抗剂</t>
+          <t>在分析患者的心血管疾病危险因素分层时，我们首先需要考虑的是患者的血压水平、其他心血管危险因素以及并发症情况。根据《中国高血压防治指南2018》，我们可以将高血压患者分为低危组、中危组和高危组。
+对于本例中的患者，他是一个52岁的男性，收缩压为150 mmHg，舒张压为91 mmHg，属于高血压2级（中度）。此外，他的血钾浓度为3.0 mmol/L，低于正常范围（3.5-5.0 mmol/L），这可能与他的高血压有关，因为低钾血症可能会增加高血压的风险。
+在考虑用药方案时，我们需要选择一种能够有效控制血压并可能改善低钾血症的药物。根据《中国高血压防治指南2018》，对于中度高血压且伴有低钾血症的患者，可以考虑使用醛固酮受体拮抗剂（如ARNI）或保钾利尿剂（如螺内酯）。
+因此，根据患者的描述，以下选项中最适合患者的用药方案是：
+（A）醛固酮受体拮抗剂
+（F）保钾利尿剂</t>
         </is>
       </c>
     </row>
@@ -775,7 +803,13 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>（A）肾素抑制剂</t>
+          <t>根据《中国高血压防治指南2018》，心血管疾病的危险因素分层主要依据年龄、血压、血脂、血糖、体重指数（BMI）、吸烟、家族史等因素。
+患者信息：53岁男性，无既往病史及手术史，无吸烟或饮酒史，无家族病史。
+体格检查：收缩压（SBP）153 mmHg，舒张压（DBP）92 mmHg，心率46 bpm。
+辅助检查：血钾浓度为4.0 mmol/L，血肌酐为70 μmol/L。
+根据上述信息，该患者属于1级高血压（轻度），且没有糖尿病、高血脂、肥胖等并发症，因此属于低危组。
+根据《中国高血压防治指南2018》，对于1级高血压患者，首选的降压药物是ACEI或ARB类，因为这类药物可以保护心脏、肾脏，减少心血管疾病的风险。
+因此，对于这位患者，最合适的用药方案是（D）ARB。</t>
         </is>
       </c>
     </row>
@@ -828,7 +862,10 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>（B）二氢吡啶类CCB</t>
+          <t>首先，我们需要根据《中国高血压防治指南2018》对患者的危险因素进行分层。根据提供的数据，患者是一个53岁的男性，收缩压（SBP）为153 mmHg，舒张压（DBP）为92 mmHg，属于1级高血压。同时，患者没有糖尿病、血脂异常、吸烟、肥胖等危险因素。
+根据《中国高血压防治指南2018》，对于1级高血压患者，首选的治疗方法是生活方式干预，包括限制钠盐摄入、增加运动、维持健康体重、戒烟限酒等。如果生活方式干预后血压仍高于正常范围，可以考虑药物治疗。
+在药物治疗方面，对于1级高血压患者，首选的药物是二氢吡啶类CCB（如氨氯地平、硝苯地平等），其次是β1受体阻滞剂（如美托洛尔、比索洛尔等）。其他药物如α受体阻滞剂、直接血管扩张药物、保钾利尿剂和非二氢吡啶类CCB等，可以根据患者的具体情况选择使用。
+因此，根据患者的描述和《中国高血压防治指南2018》的建议，最适合患者的用药方案是（B）二氢吡啶类CCB。</t>
         </is>
       </c>
     </row>
@@ -881,7 +918,11 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>（A）ACEI</t>
+          <t>根据《中国高血压防治指南2018》，心血管疾病的危险因素分层主要依据年龄、血压水平、心率、肾功能以及血钾水平等因素。
+在本例中，患者是一位75岁的男性，收缩压为145 mmHg，舒张压为69 mmHg，心率71 bpm，血钾浓度为4.0 mmol/L，血肌酐为70 μmol/L。这些指标表明患者属于高血压2级（中度），同时伴有左室肥厚（由于收缩压较高），且存在肾功能损害（血肌酐略高）和低血钾（可能由于利尿剂使用导致）。
+根据上述情况，患者的心血管疾病风险较高，需要综合考虑降压药物的选择。
+在给出的选项中，ACEI（血管紧张素转化酶抑制剂）和ARBs（醛固酮受体拮抗剂）通常用于高血压合并左室肥厚或心力衰竭的患者，因为它们可以减轻心脏负荷并改善心功能。直接血管扩张药物如硝苯地平（非二氢吡啶类CCB）适用于高血压合并心绞痛的患者。保钾利尿剂如螺内酯可用于治疗高血压合并低血钾的患者。中枢作用药物如氯硝西泮主要用于治疗焦虑症，并非用于高血压的治疗。肾素抑制剂如阿利沙坦等可用于治疗高血压，但通常不单独使用，常与其他降压药物联合应用。
+综上所述，考虑到患者的年龄、血压水平、心率、肾功能及血钾水平，最合适的用药方案可能是ACEI或ARBs，因为它们能够有效地控制血压，同时保护心脏和肾脏。然而，具体选择哪种药物还需要考虑患者的整体状况和可能的并发症。因此，最佳选择应该是（A）ACEI或（B）醛固酮受体拮抗剂。</t>
         </is>
       </c>
     </row>
@@ -934,7 +975,17 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>（A）α受体阻滞剂</t>
+          <t>根据《中国高血压防治指南2018》，对于78岁的男性高血压患者，首先需要评估其心血管疾病的危险因素。本例中，患者的高血压水平较高（SBP 155 mmHg），同时伴有低血钾（4.0 mmol/L），这可能与利尿剂治疗相关。此外，患者的心率相对较低（71 bpm），这可能与β受体阻滞剂的使用有关。
+在考虑用药方案时，我们需要考虑患者的年龄、合并症以及药物的安全性。对于高龄患者，尤其是有低血钾的患者，应避免使用可能进一步降低血钾的药物，如利尿剂。此外，β受体阻滞剂可能会增加心律失常的风险，因此也需要谨慎使用。
+基于上述分析，以下是对患者用药方案的推荐：
+- α受体阻滞剂：通常用于高血压治疗，但不适合低血钾患者。
+- β受体阻滞剂：可能会影响心率，但不适合低血钾患者。
+- 二氢吡啶类CCB：适用于高血压治疗，对血钾影响较小，可以考虑。
+- 保钾利尿剂：可能导致血钾升高，不适合低血钾患者。
+- 袢利尿剂：可能导致血钾降低，不适合低血钾患者。
+- 静脉降压药物：主要用于急性高血压危机，不适合长期治疗。
+- 肾素抑制剂：可用于高血压治疗，对血钾影响较小，可以考虑。
+综上所述，最合适的用药方案可能是（C）二氢吡啶类CCB 和（G）肾素抑制剂。然而，具体的用药方案应由临床医生根据患者的整体状况和并发症进行个体化调整。</t>
         </is>
       </c>
     </row>
@@ -987,7 +1038,12 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>（A）保钾利尿剂</t>
+          <t>根据《中国高血压防治指南2018》，高血压的危险分层主要依据年龄、血压水平、是否有其他心血管危险因素以及是否存在并发症等因素。
+对于这位78岁的男性患者，其收缩压为155 mmHg，舒张压为93 mmHg，属于高血压2级（中度）。患者年龄较大，因此属于高血压的高危人群。此外，患者没有其他心血管危险因素（如糖尿病、高脂血症、吸烟、肥胖等），也没有并发症（如冠心病、脑血管病、肾脏病等）的记录。
+在药物治疗方面，需要考虑患者的年龄、血压水平、并发症及潜在风险。对于高龄高血压患者，通常推荐使用对心血管系统影响较小的药物，以减少副作用的风险。
+选项中，保钾利尿剂（A）、二氢吡啶类CCB（B）、β受体阻滞剂（C）、肾素抑制剂（E）和中枢作用药物（D）都是用于治疗高血压的药物。β1受体阻滞剂（F）主要用于治疗心绞痛、心律失常等疾病，静脉降压药物（G）主要用于紧急降压，并不适合长期治疗。
+考虑到患者年龄较大，没有其他心血管危险因素，且血压处于中等水平，可以选择对心血管系统影响较小的药物。二氢吡啶类CCB（B）和β受体阻滞剂（C）是常用的降压药物，但β受体阻滞剂可能会影响心率，对于老年高血压患者来说可能不是最佳选择。保钾利尿剂（A）可能会增加高钾血症的风险，对于肾功能不全的患者需要谨慎使用。肾素抑制剂（E）可能对肾功能有额外要求。中枢作用药物（D）可能会引起嗜睡等副作用，不适合老年人。
+因此，考虑到上述因素，对于这位78岁的男性高血压患者，β受体阻滞剂（C）可能是比较合适的选择，因为它对心血管系统的影响较小，且可以有效地降低血压。但是，最终用药方案还需要根据患者的具体情况和医生的专业判断来确定。</t>
         </is>
       </c>
     </row>
